--- a/data/data_timefreq_alpha.xlsx
+++ b/data/data_timefreq_alpha.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basia/Dropbox/REMEMBER_analyses/rsos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF878CC3-9DB9-0547-906A-07512837FCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CDD299-123B-F645-B153-F677515A8FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26860" yWindow="460" windowWidth="29260" windowHeight="21140" xr2:uid="{FD8B58C2-6410-EA4C-8C82-7086799A3251}"/>
+    <workbookView xWindow="26860" yWindow="460" windowWidth="29260" windowHeight="21140" activeTab="4" xr2:uid="{FD8B58C2-6410-EA4C-8C82-7086799A3251}"/>
   </bookViews>
   <sheets>
     <sheet name="E1_familiar" sheetId="8" r:id="rId1"/>
     <sheet name="E1_unfamiliar" sheetId="10" r:id="rId2"/>
     <sheet name="E2_familiar" sheetId="5" r:id="rId3"/>
     <sheet name="E2_unfamiliar" sheetId="2" r:id="rId4"/>
-    <sheet name="alpha" sheetId="4" r:id="rId5"/>
+    <sheet name="summary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC79CF0B-6F0A-6145-9763-35D9FF30DD87}">
   <dimension ref="A1:DW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -43039,8 +43039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC2E5D3-3002-F24E-969C-B03815EB083E}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
